--- a/data/pca/factorExposure/factorExposure_2011-04-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-04-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +738,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.007073620926418052</v>
+        <v>-0.01333913214705034</v>
       </c>
       <c r="C2">
-        <v>0.001665242308148419</v>
+        <v>0.001866994855984</v>
       </c>
       <c r="D2">
-        <v>-0.05087767004247903</v>
+        <v>0.02895363154977882</v>
       </c>
       <c r="E2">
-        <v>0.001732257439232148</v>
+        <v>0.01506244195865602</v>
       </c>
       <c r="F2">
-        <v>0.01543758485829616</v>
+        <v>0.006468626435364418</v>
       </c>
       <c r="G2">
-        <v>0.01030034007893206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.0197272000033802</v>
+      </c>
+      <c r="H2">
+        <v>-0.0344886938947164</v>
+      </c>
+      <c r="I2">
+        <v>0.05772607404562967</v>
+      </c>
+      <c r="J2">
+        <v>0.03714094017367642</v>
+      </c>
+      <c r="K2">
+        <v>0.04598793228997394</v>
+      </c>
+      <c r="L2">
+        <v>-0.007427161166032836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +814,63 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.1014588132698883</v>
+        <v>-0.1121292222163788</v>
       </c>
       <c r="C4">
-        <v>0.03708469718496869</v>
+        <v>0.06390372405674123</v>
       </c>
       <c r="D4">
-        <v>-0.04098818739847997</v>
+        <v>0.0224839190958901</v>
       </c>
       <c r="E4">
-        <v>0.06545622157988847</v>
+        <v>0.022947621048969</v>
       </c>
       <c r="F4">
-        <v>0.03486371742623662</v>
+        <v>-0.1595797455535599</v>
       </c>
       <c r="G4">
-        <v>0.03618308806660146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.01441216223321172</v>
+      </c>
+      <c r="H4">
+        <v>-0.04079022722137435</v>
+      </c>
+      <c r="I4">
+        <v>-0.03259060449884052</v>
+      </c>
+      <c r="J4">
+        <v>-0.01265059810725087</v>
+      </c>
+      <c r="K4">
+        <v>-0.02813781717816813</v>
+      </c>
+      <c r="L4">
+        <v>-0.02742532839712373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +890,443 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.1285916505698725</v>
+        <v>-0.1264181413602069</v>
       </c>
       <c r="C6">
-        <v>0.02758324587753184</v>
+        <v>0.03083805993497102</v>
       </c>
       <c r="D6">
-        <v>-0.03693952591742332</v>
+        <v>-0.01400194027266996</v>
       </c>
       <c r="E6">
-        <v>-0.007368075002804593</v>
+        <v>0.01408450721178475</v>
       </c>
       <c r="F6">
-        <v>-0.1474231335047324</v>
+        <v>-0.006888113540382098</v>
       </c>
       <c r="G6">
-        <v>-0.1311305730133201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.1114538623050501</v>
+      </c>
+      <c r="H6">
+        <v>-0.01058335104395399</v>
+      </c>
+      <c r="I6">
+        <v>-0.284602155102308</v>
+      </c>
+      <c r="J6">
+        <v>-0.3282079323402821</v>
+      </c>
+      <c r="K6">
+        <v>0.07766182216363909</v>
+      </c>
+      <c r="L6">
+        <v>-0.1595603889439022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.08856889350474503</v>
+        <v>-0.08026058345592911</v>
       </c>
       <c r="C7">
-        <v>0.04614987892203581</v>
+        <v>0.07042816565334357</v>
       </c>
       <c r="D7">
-        <v>-0.0473427879832927</v>
+        <v>0.03082594550246751</v>
       </c>
       <c r="E7">
-        <v>0.03255477191325456</v>
+        <v>0.02441802013065411</v>
       </c>
       <c r="F7">
-        <v>-0.02201986729707766</v>
+        <v>-0.03940442095267764</v>
       </c>
       <c r="G7">
-        <v>0.04068524357449758</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0010265884139828</v>
+      </c>
+      <c r="H7">
+        <v>-0.003053899622555734</v>
+      </c>
+      <c r="I7">
+        <v>-0.01624914590535321</v>
+      </c>
+      <c r="J7">
+        <v>0.05799686026739222</v>
+      </c>
+      <c r="K7">
+        <v>-0.08995159132723882</v>
+      </c>
+      <c r="L7">
+        <v>0.008755017562472168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.04515472500730048</v>
+        <v>-0.0510912946116947</v>
       </c>
       <c r="C8">
-        <v>-0.01411020433150247</v>
+        <v>0.01718020376105385</v>
       </c>
       <c r="D8">
-        <v>-0.0732526284379568</v>
+        <v>0.004898967663631825</v>
       </c>
       <c r="E8">
-        <v>0.07895701158792345</v>
+        <v>0.01008655255520973</v>
       </c>
       <c r="F8">
-        <v>0.02764608093619065</v>
+        <v>-0.1335930284084871</v>
       </c>
       <c r="G8">
-        <v>0.1374514373590835</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04108418840679129</v>
+      </c>
+      <c r="H8">
+        <v>-0.05649842808966113</v>
+      </c>
+      <c r="I8">
+        <v>-0.02150458360184264</v>
+      </c>
+      <c r="J8">
+        <v>-0.01107866893454229</v>
+      </c>
+      <c r="K8">
+        <v>-0.001550780093600671</v>
+      </c>
+      <c r="L8">
+        <v>-0.07176273625725277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.08945268319812651</v>
+        <v>-0.08519847255762532</v>
       </c>
       <c r="C9">
-        <v>0.03989389409013607</v>
+        <v>0.05723547013084797</v>
       </c>
       <c r="D9">
-        <v>-0.0370948148026396</v>
+        <v>0.02106199027919755</v>
       </c>
       <c r="E9">
-        <v>0.04278940715061266</v>
+        <v>0.006855442610329035</v>
       </c>
       <c r="F9">
-        <v>0.01366398223854734</v>
+        <v>-0.1405613774401158</v>
       </c>
       <c r="G9">
-        <v>0.06336737286252467</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.001901266060154827</v>
+      </c>
+      <c r="H9">
+        <v>-0.01883294987823917</v>
+      </c>
+      <c r="I9">
+        <v>-0.03061833614292027</v>
+      </c>
+      <c r="J9">
+        <v>0.005446410692571019</v>
+      </c>
+      <c r="K9">
+        <v>0.006614243156738245</v>
+      </c>
+      <c r="L9">
+        <v>-0.02767000557045446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.04185045022431882</v>
+        <v>-0.09989598934614904</v>
       </c>
       <c r="C10">
-        <v>-0.1566176377038165</v>
+        <v>-0.1653892319347207</v>
       </c>
       <c r="D10">
-        <v>-0.08984488675120421</v>
+        <v>0.05028104201836532</v>
       </c>
       <c r="E10">
-        <v>0.02578699453616591</v>
+        <v>0.03880745571048245</v>
       </c>
       <c r="F10">
-        <v>-0.04150890059340472</v>
+        <v>0.003560995067904487</v>
       </c>
       <c r="G10">
-        <v>0.01802941106199413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.0257094946840316</v>
+      </c>
+      <c r="H10">
+        <v>0.05243017428473735</v>
+      </c>
+      <c r="I10">
+        <v>-0.02040890770100104</v>
+      </c>
+      <c r="J10">
+        <v>-0.01282654337081332</v>
+      </c>
+      <c r="K10">
+        <v>-0.07692787161732087</v>
+      </c>
+      <c r="L10">
+        <v>0.01698710223061468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.07392711468944459</v>
+        <v>-0.07781185650057912</v>
       </c>
       <c r="C11">
-        <v>0.06311741520194988</v>
+        <v>0.07111961750251919</v>
       </c>
       <c r="D11">
-        <v>-0.004415428702448887</v>
+        <v>0.01150405993383557</v>
       </c>
       <c r="E11">
-        <v>-0.00564072076291256</v>
+        <v>-0.02625137619932998</v>
       </c>
       <c r="F11">
-        <v>0.01599151206625711</v>
+        <v>-0.132067829541373</v>
       </c>
       <c r="G11">
-        <v>0.1397392770073887</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02408068288621533</v>
+      </c>
+      <c r="H11">
+        <v>0.02497499387420722</v>
+      </c>
+      <c r="I11">
+        <v>0.04093126257113859</v>
+      </c>
+      <c r="J11">
+        <v>0.0840321808842369</v>
+      </c>
+      <c r="K11">
+        <v>0.04453449298379399</v>
+      </c>
+      <c r="L11">
+        <v>-0.007789089502014022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.06925265750421726</v>
+        <v>-0.07194465085777907</v>
       </c>
       <c r="C12">
-        <v>0.03908973005180932</v>
+        <v>0.06340811077947364</v>
       </c>
       <c r="D12">
-        <v>0.003619003734021855</v>
+        <v>0.01618439350430491</v>
       </c>
       <c r="E12">
-        <v>0.03426724488031181</v>
+        <v>-0.02473772751371067</v>
       </c>
       <c r="F12">
-        <v>-0.001135813389217108</v>
+        <v>-0.1342350814590552</v>
       </c>
       <c r="G12">
-        <v>0.1361918756644467</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.04447467405185353</v>
+      </c>
+      <c r="H12">
+        <v>0.006051580955410253</v>
+      </c>
+      <c r="I12">
+        <v>-0.0004989655893930146</v>
+      </c>
+      <c r="J12">
+        <v>0.09565237482209926</v>
+      </c>
+      <c r="K12">
+        <v>0.05287237832832648</v>
+      </c>
+      <c r="L12">
+        <v>-0.04596673274580158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.06093542008795969</v>
+        <v>-0.04044300592587985</v>
       </c>
       <c r="C13">
-        <v>0.0002441694153063568</v>
+        <v>0.02752530176349501</v>
       </c>
       <c r="D13">
-        <v>-0.009261126167326153</v>
+        <v>0.002097602014305972</v>
       </c>
       <c r="E13">
-        <v>0.03064867356899031</v>
+        <v>0.02334623266660583</v>
       </c>
       <c r="F13">
-        <v>0.0346829695131887</v>
+        <v>-0.05704945035011203</v>
       </c>
       <c r="G13">
-        <v>0.05830706093607712</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.003110545903566411</v>
+      </c>
+      <c r="H13">
+        <v>-0.01596425274408371</v>
+      </c>
+      <c r="I13">
+        <v>-0.05316866875323024</v>
+      </c>
+      <c r="J13">
+        <v>-0.002535849085528425</v>
+      </c>
+      <c r="K13">
+        <v>-0.04780354706921236</v>
+      </c>
+      <c r="L13">
+        <v>0.01420930728027591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.05042891356443188</v>
+        <v>-0.04301181008110935</v>
       </c>
       <c r="C14">
-        <v>0.003879308103302538</v>
+        <v>0.02251123841934414</v>
       </c>
       <c r="D14">
-        <v>-0.02660989874874522</v>
+        <v>0.01111817413741053</v>
       </c>
       <c r="E14">
-        <v>0.02206886033745449</v>
+        <v>-0.01223460970576775</v>
       </c>
       <c r="F14">
-        <v>-0.003852130307871898</v>
+        <v>-0.05966210294405097</v>
       </c>
       <c r="G14">
-        <v>0.05503850188497612</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.01629334653436514</v>
+      </c>
+      <c r="H14">
+        <v>-0.007439522716310045</v>
+      </c>
+      <c r="I14">
+        <v>0.001761030797432948</v>
+      </c>
+      <c r="J14">
+        <v>-0.04876519241156756</v>
+      </c>
+      <c r="K14">
+        <v>-0.06245551740566446</v>
+      </c>
+      <c r="L14">
+        <v>-0.04980437531955316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.03705137491695944</v>
+        <v>-0.02333135882005867</v>
       </c>
       <c r="C15">
-        <v>-0.00870627070401876</v>
+        <v>0.01189630213405111</v>
       </c>
       <c r="D15">
-        <v>-0.01198521911392362</v>
+        <v>-0.01002966101619326</v>
       </c>
       <c r="E15">
-        <v>0.00795533859889112</v>
+        <v>0.04505027995534296</v>
       </c>
       <c r="F15">
-        <v>0.01577070641326708</v>
+        <v>-0.01810661418090493</v>
       </c>
       <c r="G15">
-        <v>0.03296597125444548</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.03467523177404655</v>
+      </c>
+      <c r="H15">
+        <v>-0.002081534724738227</v>
+      </c>
+      <c r="I15">
+        <v>-0.01775006403243927</v>
+      </c>
+      <c r="J15">
+        <v>-0.03569651849290872</v>
+      </c>
+      <c r="K15">
+        <v>-0.0617092657060401</v>
+      </c>
+      <c r="L15">
+        <v>0.02228081777782306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.07753746502412345</v>
+        <v>-0.08194634742263894</v>
       </c>
       <c r="C16">
-        <v>0.07228768523798028</v>
+        <v>0.07366446173625135</v>
       </c>
       <c r="D16">
-        <v>-0.01632006989463345</v>
+        <v>0.006879088310575633</v>
       </c>
       <c r="E16">
-        <v>0.04086775467683862</v>
+        <v>-0.02200831536530509</v>
       </c>
       <c r="F16">
-        <v>0.03898737655981142</v>
+        <v>-0.1260078946328847</v>
       </c>
       <c r="G16">
-        <v>0.1125200340807586</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.04247494445953209</v>
+      </c>
+      <c r="H16">
+        <v>0.01056714156393227</v>
+      </c>
+      <c r="I16">
+        <v>0.03810574296539421</v>
+      </c>
+      <c r="J16">
+        <v>0.09535988054354046</v>
+      </c>
+      <c r="K16">
+        <v>0.0354028514482579</v>
+      </c>
+      <c r="L16">
+        <v>-0.03321926647275449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1346,25 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1384,25 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1422,291 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.04931949689529273</v>
+        <v>-0.04745495737630756</v>
       </c>
       <c r="C20">
-        <v>0.01839103516564263</v>
+        <v>0.0377584844639087</v>
       </c>
       <c r="D20">
-        <v>-0.01619787614429362</v>
+        <v>0.01576899911995805</v>
       </c>
       <c r="E20">
-        <v>0.02252741458610675</v>
+        <v>0.01949185070390119</v>
       </c>
       <c r="F20">
-        <v>0.005161206671515416</v>
+        <v>-0.06811819405448356</v>
       </c>
       <c r="G20">
-        <v>0.09564913679215285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.02595382475332255</v>
+      </c>
+      <c r="H20">
+        <v>-0.008138676904938165</v>
+      </c>
+      <c r="I20">
+        <v>-0.03493813843348281</v>
+      </c>
+      <c r="J20">
+        <v>0.01212968373024562</v>
+      </c>
+      <c r="K20">
+        <v>-0.0536197812807591</v>
+      </c>
+      <c r="L20">
+        <v>-0.01539215603050819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.02691601386865295</v>
+        <v>-0.02407055729835425</v>
       </c>
       <c r="C21">
-        <v>0.04104660782837154</v>
+        <v>0.02136940525731382</v>
       </c>
       <c r="D21">
-        <v>0.004846259871816375</v>
+        <v>0.005470856103043928</v>
       </c>
       <c r="E21">
-        <v>0.01822923099487747</v>
+        <v>-0.00309785759729726</v>
       </c>
       <c r="F21">
-        <v>-0.08239121818227535</v>
+        <v>-0.07779774841320596</v>
       </c>
       <c r="G21">
-        <v>-0.0488082141177399</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03742050085138548</v>
+      </c>
+      <c r="H21">
+        <v>0.04039980444749874</v>
+      </c>
+      <c r="I21">
+        <v>-0.07790870426977833</v>
+      </c>
+      <c r="J21">
+        <v>0.02482824773901326</v>
+      </c>
+      <c r="K21">
+        <v>-0.1225888765070611</v>
+      </c>
+      <c r="L21">
+        <v>0.08236010379567896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.04059453322602134</v>
+        <v>-0.04559528985488149</v>
       </c>
       <c r="C22">
-        <v>-0.002325062128903726</v>
+        <v>0.009597555221481155</v>
       </c>
       <c r="D22">
-        <v>0.0224107992182914</v>
+        <v>-0.1783805335879664</v>
       </c>
       <c r="E22">
-        <v>0.5638585585344615</v>
+        <v>0.6305286714753449</v>
       </c>
       <c r="F22">
-        <v>0.1094952941707469</v>
+        <v>0.06816670757354538</v>
       </c>
       <c r="G22">
-        <v>-0.2939709889550959</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.1239112468264461</v>
+      </c>
+      <c r="H22">
+        <v>0.0870409049598322</v>
+      </c>
+      <c r="I22">
+        <v>0.005085864950053509</v>
+      </c>
+      <c r="J22">
+        <v>0.05943230486542742</v>
+      </c>
+      <c r="K22">
+        <v>0.07548124246153798</v>
+      </c>
+      <c r="L22">
+        <v>0.03378721964170865</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.04059764470381286</v>
+        <v>-0.04599982582879522</v>
       </c>
       <c r="C23">
-        <v>-0.001729897962064946</v>
+        <v>0.01022511851975978</v>
       </c>
       <c r="D23">
-        <v>0.02125513917784976</v>
+        <v>-0.1789628172247461</v>
       </c>
       <c r="E23">
-        <v>0.563593593004846</v>
+        <v>0.6322769255775041</v>
       </c>
       <c r="F23">
-        <v>0.110230983753913</v>
+        <v>0.06586350050493275</v>
       </c>
       <c r="G23">
-        <v>-0.2955768878925865</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.1251122713747815</v>
+      </c>
+      <c r="H23">
+        <v>0.0850296570056118</v>
+      </c>
+      <c r="I23">
+        <v>0.004556335774621385</v>
+      </c>
+      <c r="J23">
+        <v>0.05637805551555208</v>
+      </c>
+      <c r="K23">
+        <v>0.07785044135205607</v>
+      </c>
+      <c r="L23">
+        <v>0.03202746411246329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.08548958075582069</v>
+        <v>-0.08441905156924187</v>
       </c>
       <c r="C24">
-        <v>0.04844437346273226</v>
+        <v>0.06628021291892779</v>
       </c>
       <c r="D24">
-        <v>-0.01675805125941797</v>
+        <v>0.01242872419306686</v>
       </c>
       <c r="E24">
-        <v>0.03733371057497992</v>
+        <v>-0.01744203832089453</v>
       </c>
       <c r="F24">
-        <v>0.009433782423263691</v>
+        <v>-0.1289326310032413</v>
       </c>
       <c r="G24">
-        <v>0.1095669605829069</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02442903032326566</v>
+      </c>
+      <c r="H24">
+        <v>0.04173987046362478</v>
+      </c>
+      <c r="I24">
+        <v>0.0480469385218482</v>
+      </c>
+      <c r="J24">
+        <v>0.0840482762534787</v>
+      </c>
+      <c r="K24">
+        <v>0.05699151339107162</v>
+      </c>
+      <c r="L24">
+        <v>-0.02159696971425613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.07473854134853346</v>
+        <v>-0.08387525722851924</v>
       </c>
       <c r="C25">
-        <v>0.02058295475160263</v>
+        <v>0.05203225462401635</v>
       </c>
       <c r="D25">
-        <v>-0.02302531170442741</v>
+        <v>0.0255182348355618</v>
       </c>
       <c r="E25">
-        <v>0.02586548986115575</v>
+        <v>-0.02919642117573285</v>
       </c>
       <c r="F25">
-        <v>0.002113504390303222</v>
+        <v>-0.1259581861950892</v>
       </c>
       <c r="G25">
-        <v>0.1042053789282988</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.0459267564453022</v>
+      </c>
+      <c r="H25">
+        <v>0.01744857185895435</v>
+      </c>
+      <c r="I25">
+        <v>0.03258262613203125</v>
+      </c>
+      <c r="J25">
+        <v>0.07621583512940942</v>
+      </c>
+      <c r="K25">
+        <v>0.04298995407046786</v>
+      </c>
+      <c r="L25">
+        <v>-0.05401453773001297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.04896565933022439</v>
+        <v>-0.04243172528253361</v>
       </c>
       <c r="C26">
-        <v>0.02669350316225372</v>
+        <v>0.01011157618811161</v>
       </c>
       <c r="D26">
-        <v>-0.03108819793210456</v>
+        <v>-0.003422992598997812</v>
       </c>
       <c r="E26">
-        <v>0.01411437852595392</v>
+        <v>0.01173482049606245</v>
       </c>
       <c r="F26">
-        <v>0.0261761346381415</v>
+        <v>-0.05266297320668516</v>
       </c>
       <c r="G26">
-        <v>0.05708152616178901</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.01844406980399099</v>
+      </c>
+      <c r="H26">
+        <v>0.03292551464460456</v>
+      </c>
+      <c r="I26">
+        <v>0.004558315982220199</v>
+      </c>
+      <c r="J26">
+        <v>-0.03562684811028965</v>
+      </c>
+      <c r="K26">
+        <v>-0.05521060537396374</v>
+      </c>
+      <c r="L26">
+        <v>0.0344749202813709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1726,367 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.06924416526597775</v>
+        <v>-0.1248072320952335</v>
       </c>
       <c r="C28">
-        <v>-0.292347961314208</v>
+        <v>-0.3002851280818159</v>
       </c>
       <c r="D28">
-        <v>-0.06567357739590045</v>
+        <v>0.001519031978592892</v>
       </c>
       <c r="E28">
-        <v>-0.03401170777791195</v>
+        <v>-0.01271027343836288</v>
       </c>
       <c r="F28">
-        <v>-0.04921884547527112</v>
+        <v>-0.015317230911562</v>
       </c>
       <c r="G28">
-        <v>-0.02022006151375789</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.0100742695053537</v>
+      </c>
+      <c r="H28">
+        <v>-0.005545971829077226</v>
+      </c>
+      <c r="I28">
+        <v>-0.02270720165862597</v>
+      </c>
+      <c r="J28">
+        <v>0.02045524014179633</v>
+      </c>
+      <c r="K28">
+        <v>-0.003538832557724567</v>
+      </c>
+      <c r="L28">
+        <v>0.031549230555273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.05407742007777221</v>
+        <v>-0.04196048720091472</v>
       </c>
       <c r="C29">
-        <v>0.005985377520652246</v>
+        <v>0.02449553186261446</v>
       </c>
       <c r="D29">
-        <v>-0.01796567086339959</v>
+        <v>0.0225505025980268</v>
       </c>
       <c r="E29">
-        <v>0.04131780003160258</v>
+        <v>0.007330022733266221</v>
       </c>
       <c r="F29">
-        <v>0.02797578995183071</v>
+        <v>-0.05794884536832522</v>
       </c>
       <c r="G29">
-        <v>0.03528111847289938</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03617141279396176</v>
+      </c>
+      <c r="H29">
+        <v>0.008055046203377715</v>
+      </c>
+      <c r="I29">
+        <v>-0.0115140981098215</v>
+      </c>
+      <c r="J29">
+        <v>-0.03586236075409368</v>
+      </c>
+      <c r="K29">
+        <v>-0.05930928644390092</v>
+      </c>
+      <c r="L29">
+        <v>-0.03566048272977736</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.1202647310239681</v>
+        <v>-0.1058843455030385</v>
       </c>
       <c r="C30">
-        <v>-0.01068607800509402</v>
+        <v>0.05845074734913109</v>
       </c>
       <c r="D30">
-        <v>-0.07167755343054209</v>
+        <v>-0.02174827986263099</v>
       </c>
       <c r="E30">
-        <v>0.1916902561969111</v>
+        <v>-0.01178679518955043</v>
       </c>
       <c r="F30">
-        <v>-0.03769420189658527</v>
+        <v>-0.1946440843554568</v>
       </c>
       <c r="G30">
-        <v>0.1465004681688205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.1002125021724721</v>
+      </c>
+      <c r="H30">
+        <v>0.08487146128182611</v>
+      </c>
+      <c r="I30">
+        <v>-0.1942715577584828</v>
+      </c>
+      <c r="J30">
+        <v>0.1727343695406538</v>
+      </c>
+      <c r="K30">
+        <v>0.1827142710796275</v>
+      </c>
+      <c r="L30">
+        <v>-0.03821475561441851</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.05551566918862465</v>
+        <v>-0.03969217338980305</v>
       </c>
       <c r="C31">
-        <v>0.01595763780449684</v>
+        <v>0.03963212141930401</v>
       </c>
       <c r="D31">
-        <v>0.005370869012707855</v>
+        <v>0.002205570512776758</v>
       </c>
       <c r="E31">
-        <v>0.01366270474857495</v>
+        <v>0.004235513203879132</v>
       </c>
       <c r="F31">
-        <v>0.02689477098262105</v>
+        <v>-0.02431935991400448</v>
       </c>
       <c r="G31">
-        <v>0.006960336329338897</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01455330227065374</v>
+      </c>
+      <c r="H31">
+        <v>-0.008980933546635313</v>
+      </c>
+      <c r="I31">
+        <v>0.02563968976130153</v>
+      </c>
+      <c r="J31">
+        <v>-0.03116547052578431</v>
+      </c>
+      <c r="K31">
+        <v>-0.008936175823253291</v>
+      </c>
+      <c r="L31">
+        <v>-0.03630403443100896</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.03402966607246125</v>
+        <v>-0.04844037927115387</v>
       </c>
       <c r="C32">
-        <v>-0.02680824106261433</v>
+        <v>0.0004213257625557694</v>
       </c>
       <c r="D32">
-        <v>-0.004722070359643595</v>
+        <v>-0.02308647509696892</v>
       </c>
       <c r="E32">
-        <v>0.08439600105312804</v>
+        <v>-0.02601061548048216</v>
       </c>
       <c r="F32">
-        <v>0.07154331432429283</v>
+        <v>-0.07629673472489093</v>
       </c>
       <c r="G32">
-        <v>0.06240833019495362</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.0181615681730651</v>
+      </c>
+      <c r="H32">
+        <v>-0.00313818617234392</v>
+      </c>
+      <c r="I32">
+        <v>0.01448859160036418</v>
+      </c>
+      <c r="J32">
+        <v>-0.01337068074977846</v>
+      </c>
+      <c r="K32">
+        <v>-0.01507487934051563</v>
+      </c>
+      <c r="L32">
+        <v>0.0110802704261223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.1103761877801326</v>
+        <v>-0.1007104564230941</v>
       </c>
       <c r="C33">
-        <v>0.02125163371614855</v>
+        <v>0.05546410872220404</v>
       </c>
       <c r="D33">
-        <v>0.01292264220306577</v>
+        <v>0.0004421057395699846</v>
       </c>
       <c r="E33">
-        <v>0.003217213739922333</v>
+        <v>-0.02120001753671386</v>
       </c>
       <c r="F33">
-        <v>0.04658933856900475</v>
+        <v>-0.06910923341227439</v>
       </c>
       <c r="G33">
-        <v>0.04700918559620196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01844081167085537</v>
+      </c>
+      <c r="H33">
+        <v>0.001913067857622421</v>
+      </c>
+      <c r="I33">
+        <v>0.02320565432945923</v>
+      </c>
+      <c r="J33">
+        <v>-0.003060334992192161</v>
+      </c>
+      <c r="K33">
+        <v>0.01678436114947271</v>
+      </c>
+      <c r="L33">
+        <v>-0.01936883306544361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.06444674297882858</v>
+        <v>-0.06793982815437141</v>
       </c>
       <c r="C34">
-        <v>0.05082012472603526</v>
+        <v>0.05441824155903145</v>
       </c>
       <c r="D34">
-        <v>-0.004864048405546766</v>
+        <v>0.0115876932578894</v>
       </c>
       <c r="E34">
-        <v>0.01988465689454645</v>
+        <v>-0.02203856206991961</v>
       </c>
       <c r="F34">
-        <v>0.01378750561899329</v>
+        <v>-0.1136978269617268</v>
       </c>
       <c r="G34">
-        <v>0.08731103231619133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.03058186051417345</v>
+      </c>
+      <c r="H34">
+        <v>0.009377784367528778</v>
+      </c>
+      <c r="I34">
+        <v>0.02785792891552408</v>
+      </c>
+      <c r="J34">
+        <v>0.07346213856119217</v>
+      </c>
+      <c r="K34">
+        <v>-0.0003511256268330364</v>
+      </c>
+      <c r="L34">
+        <v>-0.04140266359899056</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.04369613692754499</v>
+        <v>-0.02331717751746139</v>
       </c>
       <c r="C35">
-        <v>0.008002633889446449</v>
+        <v>0.02057033510589074</v>
       </c>
       <c r="D35">
-        <v>0.0128416638281229</v>
+        <v>0.005043503585454182</v>
       </c>
       <c r="E35">
-        <v>0.01148983570725699</v>
+        <v>-0.005704604782607623</v>
       </c>
       <c r="F35">
-        <v>-0.02853075644866581</v>
+        <v>-0.03089151196187393</v>
       </c>
       <c r="G35">
-        <v>0.04789361581201332</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.03008216890812006</v>
+      </c>
+      <c r="H35">
+        <v>0.005003492890292394</v>
+      </c>
+      <c r="I35">
+        <v>-0.03049590558247511</v>
+      </c>
+      <c r="J35">
+        <v>0.04387544022571937</v>
+      </c>
+      <c r="K35">
+        <v>-0.05001169650822773</v>
+      </c>
+      <c r="L35">
+        <v>-0.02378097920177966</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.03600380714003652</v>
+        <v>-0.02819570510336307</v>
       </c>
       <c r="C36">
-        <v>0.002842686180199803</v>
+        <v>0.01378595503891819</v>
       </c>
       <c r="D36">
-        <v>-0.02276693478551265</v>
+        <v>0.002401096597607073</v>
       </c>
       <c r="E36">
-        <v>0.03239165754594527</v>
+        <v>0.007165278421167129</v>
       </c>
       <c r="F36">
-        <v>0.003797110623802617</v>
+        <v>-0.07283181589369814</v>
       </c>
       <c r="G36">
-        <v>0.0611126122439214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01941863319856162</v>
+      </c>
+      <c r="H36">
+        <v>0.01502617673660485</v>
+      </c>
+      <c r="I36">
+        <v>-0.01806587368730037</v>
+      </c>
+      <c r="J36">
+        <v>-0.02541293701377276</v>
+      </c>
+      <c r="K36">
+        <v>-0.01474428333105828</v>
+      </c>
+      <c r="L36">
+        <v>-0.005292774685913985</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2106,177 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.0510488530240302</v>
+        <v>-0.02370280295287959</v>
       </c>
       <c r="C38">
-        <v>0.02010168031794015</v>
+        <v>0.03046151968892328</v>
       </c>
       <c r="D38">
-        <v>0.00172663046165801</v>
+        <v>0.005293013422343739</v>
       </c>
       <c r="E38">
-        <v>0.010621848602251</v>
+        <v>0.02114521710125232</v>
       </c>
       <c r="F38">
-        <v>-0.003248892512151435</v>
+        <v>0.05024474996624564</v>
       </c>
       <c r="G38">
-        <v>0.04628806775073985</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01228681926229764</v>
+      </c>
+      <c r="H38">
+        <v>0.01605421023962819</v>
+      </c>
+      <c r="I38">
+        <v>-0.02098333278284067</v>
+      </c>
+      <c r="J38">
+        <v>-0.001912593160790997</v>
+      </c>
+      <c r="K38">
+        <v>0.01656425286658227</v>
+      </c>
+      <c r="L38">
+        <v>0.1098931939486766</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.1065936321190794</v>
+        <v>-0.1135829509590029</v>
       </c>
       <c r="C39">
-        <v>0.04304643459094476</v>
+        <v>0.08638101221190563</v>
       </c>
       <c r="D39">
-        <v>-0.00280002118167613</v>
+        <v>0.02548824362429384</v>
       </c>
       <c r="E39">
-        <v>0.06899635275164891</v>
+        <v>-0.09435678227607762</v>
       </c>
       <c r="F39">
-        <v>0.009688416944671952</v>
+        <v>-0.1452635412574381</v>
       </c>
       <c r="G39">
-        <v>0.1612131407555508</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.1335585467475548</v>
+      </c>
+      <c r="H39">
+        <v>0.01911653212492559</v>
+      </c>
+      <c r="I39">
+        <v>-0.009895625592490631</v>
+      </c>
+      <c r="J39">
+        <v>0.1890308481529997</v>
+      </c>
+      <c r="K39">
+        <v>0.08566552424591023</v>
+      </c>
+      <c r="L39">
+        <v>-0.0609065179072532</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.05419892901270678</v>
+        <v>-0.02812027367400785</v>
       </c>
       <c r="C40">
-        <v>0.0360888173462346</v>
+        <v>0.0594669706206639</v>
       </c>
       <c r="D40">
-        <v>0.03270763022201409</v>
+        <v>-0.004940617675391732</v>
       </c>
       <c r="E40">
-        <v>0.1004717409221514</v>
+        <v>0.04670681532421889</v>
       </c>
       <c r="F40">
-        <v>-0.01398900549034969</v>
+        <v>-0.1224914996203777</v>
       </c>
       <c r="G40">
-        <v>0.2662862044465121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.03888182967956286</v>
+      </c>
+      <c r="H40">
+        <v>0.09812262556359477</v>
+      </c>
+      <c r="I40">
+        <v>-0.04420942073259106</v>
+      </c>
+      <c r="J40">
+        <v>0.002252109373881414</v>
+      </c>
+      <c r="K40">
+        <v>-0.01456867533688601</v>
+      </c>
+      <c r="L40">
+        <v>0.1044884380453121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.0487132839145208</v>
+        <v>-0.03492447082069813</v>
       </c>
       <c r="C41">
-        <v>0.03211627188569959</v>
+        <v>0.02893455470397984</v>
       </c>
       <c r="D41">
-        <v>-0.006424768868530582</v>
+        <v>0.01611143552195574</v>
       </c>
       <c r="E41">
-        <v>-0.005381016036875897</v>
+        <v>-0.01121550145564833</v>
       </c>
       <c r="F41">
-        <v>0.0228426323709514</v>
+        <v>-0.01870585031372992</v>
       </c>
       <c r="G41">
-        <v>0.08054530236790075</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01579882276080594</v>
+      </c>
+      <c r="H41">
+        <v>-0.0005415617529794226</v>
+      </c>
+      <c r="I41">
+        <v>-0.007585880510407767</v>
+      </c>
+      <c r="J41">
+        <v>0.01008994062626467</v>
+      </c>
+      <c r="K41">
+        <v>-0.01095416339039641</v>
+      </c>
+      <c r="L41">
+        <v>0.004798335663274495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2296,101 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.07361798751482862</v>
+        <v>-0.0497627575724427</v>
       </c>
       <c r="C43">
-        <v>0.02665785658363272</v>
+        <v>0.03022211530839594</v>
       </c>
       <c r="D43">
-        <v>-0.02738099444194639</v>
+        <v>0.005830674657723302</v>
       </c>
       <c r="E43">
-        <v>0.02930404862649678</v>
+        <v>0.0160155080828069</v>
       </c>
       <c r="F43">
-        <v>0.01778105038633537</v>
+        <v>-0.008851561238482769</v>
       </c>
       <c r="G43">
-        <v>0.01919717633743174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.04107297202481639</v>
+      </c>
+      <c r="H43">
+        <v>-0.007706977895762974</v>
+      </c>
+      <c r="I43">
+        <v>-0.01824053655562755</v>
+      </c>
+      <c r="J43">
+        <v>0.01147077980032714</v>
+      </c>
+      <c r="K43">
+        <v>0.02500433934157287</v>
+      </c>
+      <c r="L43">
+        <v>-0.01303912210696695</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.06490473747453068</v>
+        <v>-0.1113759879887628</v>
       </c>
       <c r="C44">
-        <v>0.02927951681421447</v>
+        <v>0.09419045877466582</v>
       </c>
       <c r="D44">
-        <v>-0.09866114428480427</v>
+        <v>0.04115835423246051</v>
       </c>
       <c r="E44">
-        <v>0.0761706336663087</v>
+        <v>0.105241636469956</v>
       </c>
       <c r="F44">
-        <v>0.03260094924171643</v>
+        <v>-0.2170531553665492</v>
       </c>
       <c r="G44">
-        <v>0.1458509303922914</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03542946878382489</v>
+      </c>
+      <c r="H44">
+        <v>0.1008650468520878</v>
+      </c>
+      <c r="I44">
+        <v>-0.0479432468573457</v>
+      </c>
+      <c r="J44">
+        <v>-0.04051659147364978</v>
+      </c>
+      <c r="K44">
+        <v>-0.2298911978848927</v>
+      </c>
+      <c r="L44">
+        <v>0.06094671035251682</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2410,443 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.04455829547725255</v>
+        <v>-0.03333722399913853</v>
       </c>
       <c r="C46">
-        <v>0.04129678733298757</v>
+        <v>0.02590071650915534</v>
       </c>
       <c r="D46">
-        <v>-0.02080821447628839</v>
+        <v>0.01747593880855005</v>
       </c>
       <c r="E46">
-        <v>0.0548285324595682</v>
+        <v>0.04154774409524564</v>
       </c>
       <c r="F46">
-        <v>0.0100747451023438</v>
+        <v>-0.03806371474779095</v>
       </c>
       <c r="G46">
-        <v>0.04682810974605679</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01671083867452607</v>
+      </c>
+      <c r="H46">
+        <v>0.04142364677258566</v>
+      </c>
+      <c r="I46">
+        <v>-0.01067025060474161</v>
+      </c>
+      <c r="J46">
+        <v>-0.01001489712948104</v>
+      </c>
+      <c r="K46">
+        <v>-0.1158207957504714</v>
+      </c>
+      <c r="L46">
+        <v>-0.06553619919139306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.04817349808219421</v>
+        <v>-0.04216849279193872</v>
       </c>
       <c r="C47">
-        <v>0.00378951255208023</v>
+        <v>0.02431719420592732</v>
       </c>
       <c r="D47">
-        <v>-0.01003049316199542</v>
+        <v>0.0007910777026225381</v>
       </c>
       <c r="E47">
-        <v>0.06480308098343486</v>
+        <v>0.01972739486490442</v>
       </c>
       <c r="F47">
-        <v>-0.005302150341628976</v>
+        <v>-0.03623819578575498</v>
       </c>
       <c r="G47">
-        <v>-0.003208989268625227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.003490444801150971</v>
+      </c>
+      <c r="H47">
+        <v>-0.00119853049413067</v>
+      </c>
+      <c r="I47">
+        <v>-0.0233729623309635</v>
+      </c>
+      <c r="J47">
+        <v>-0.02572695650799454</v>
+      </c>
+      <c r="K47">
+        <v>-0.03613010799658073</v>
+      </c>
+      <c r="L47">
+        <v>-0.007434142014518257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.04200835534993125</v>
+        <v>-0.04363745255466347</v>
       </c>
       <c r="C48">
-        <v>-0.001916832556751012</v>
+        <v>0.01325424547321755</v>
       </c>
       <c r="D48">
-        <v>0.003677266781398385</v>
+        <v>0.006184424206213075</v>
       </c>
       <c r="E48">
-        <v>0.03590678934929245</v>
+        <v>0.007991204489383185</v>
       </c>
       <c r="F48">
-        <v>0.001406536794213555</v>
+        <v>-0.06700912633653747</v>
       </c>
       <c r="G48">
-        <v>0.04336104745076717</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.002730016765578395</v>
+      </c>
+      <c r="H48">
+        <v>0.02448151898486443</v>
+      </c>
+      <c r="I48">
+        <v>-0.01118463937739345</v>
+      </c>
+      <c r="J48">
+        <v>0.01152078408258295</v>
+      </c>
+      <c r="K48">
+        <v>-0.02935896331320943</v>
+      </c>
+      <c r="L48">
+        <v>-0.04564335923705345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0.2377531131931694</v>
+        <v>-0.2215210757910241</v>
       </c>
       <c r="C49">
-        <v>0.09961932474681241</v>
+        <v>0.04674922448811151</v>
       </c>
       <c r="D49">
-        <v>-0.04787706748113712</v>
+        <v>0.07956039660167692</v>
       </c>
       <c r="E49">
-        <v>-0.08387404564179873</v>
+        <v>-0.01189535937253065</v>
       </c>
       <c r="F49">
-        <v>-0.1662606457499879</v>
+        <v>0.2126451424623549</v>
       </c>
       <c r="G49">
-        <v>-0.07312474287013471</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.2098848145713896</v>
+      </c>
+      <c r="H49">
+        <v>0.1637827969022707</v>
+      </c>
+      <c r="I49">
+        <v>0.02818779817336864</v>
+      </c>
+      <c r="J49">
+        <v>0.131645159097992</v>
+      </c>
+      <c r="K49">
+        <v>0.2218339092851801</v>
+      </c>
+      <c r="L49">
+        <v>0.02273633060500819</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.0543222071344205</v>
+        <v>-0.04373546832515587</v>
       </c>
       <c r="C50">
-        <v>0.01443792296997371</v>
+        <v>0.02866022871037239</v>
       </c>
       <c r="D50">
-        <v>0.005759682578932583</v>
+        <v>0.0002102768036961808</v>
       </c>
       <c r="E50">
-        <v>0.02902476290988441</v>
+        <v>-0.001366749283455209</v>
       </c>
       <c r="F50">
-        <v>0.04739342310053927</v>
+        <v>-0.0485284911504388</v>
       </c>
       <c r="G50">
-        <v>-0.007541075600405073</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.02391101272124287</v>
+      </c>
+      <c r="H50">
+        <v>0.01037228183996644</v>
+      </c>
+      <c r="I50">
+        <v>0.01401389787243613</v>
+      </c>
+      <c r="J50">
+        <v>-0.04105818488643931</v>
+      </c>
+      <c r="K50">
+        <v>-0.001109882982982589</v>
+      </c>
+      <c r="L50">
+        <v>-0.03136707013156729</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.03564550826531792</v>
+        <v>-0.02250009506093915</v>
       </c>
       <c r="C51">
-        <v>0.01578850058372452</v>
+        <v>-0.0008285434300827374</v>
       </c>
       <c r="D51">
-        <v>-0.01346645417743934</v>
+        <v>0.01509503459841799</v>
       </c>
       <c r="E51">
-        <v>-0.006744000436928605</v>
+        <v>0.006855348592890453</v>
       </c>
       <c r="F51">
-        <v>-0.0008831076916035574</v>
+        <v>0.02307144493342012</v>
       </c>
       <c r="G51">
-        <v>0.006799008826276492</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.01600066970907956</v>
+      </c>
+      <c r="H51">
+        <v>-0.01180783334270301</v>
+      </c>
+      <c r="I51">
+        <v>-0.00373584606618599</v>
+      </c>
+      <c r="J51">
+        <v>0.02974080591650465</v>
+      </c>
+      <c r="K51">
+        <v>0.04666091167268747</v>
+      </c>
+      <c r="L51">
+        <v>-0.01802115207372813</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.06503063265777803</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.03474556199376536</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01046946892349635</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.01897742255755409</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.001674449464506789</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.1162693237725158</v>
+      </c>
+      <c r="H52">
+        <v>-0.01149330929453896</v>
+      </c>
+      <c r="I52">
+        <v>0.07030826865921791</v>
+      </c>
+      <c r="J52">
+        <v>-0.02783743936552089</v>
+      </c>
+      <c r="K52">
+        <v>-0.02684023844830673</v>
+      </c>
+      <c r="L52">
+        <v>-0.01081226091871287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.1602869618347401</v>
+        <v>-0.1630564476255382</v>
       </c>
       <c r="C53">
-        <v>0.001822035207555413</v>
+        <v>0.03635174023696133</v>
       </c>
       <c r="D53">
-        <v>-0.008505483617411474</v>
+        <v>0.02596376052776033</v>
       </c>
       <c r="E53">
-        <v>-0.05708307695729981</v>
+        <v>-0.003482144418307743</v>
       </c>
       <c r="F53">
-        <v>0.2417398049937041</v>
+        <v>0.1025569843736315</v>
       </c>
       <c r="G53">
-        <v>-0.06791935530654782</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.1636758532001275</v>
+      </c>
+      <c r="H53">
+        <v>-0.06040657565146759</v>
+      </c>
+      <c r="I53">
+        <v>0.1706933134679116</v>
+      </c>
+      <c r="J53">
+        <v>-0.1563193072189973</v>
+      </c>
+      <c r="K53">
+        <v>0.007362792835501957</v>
+      </c>
+      <c r="L53">
+        <v>-0.0008016028138120654</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.05239723361074817</v>
+        <v>-0.05574055136780552</v>
       </c>
       <c r="C54">
-        <v>0.005955903369555727</v>
+        <v>0.03884617263506591</v>
       </c>
       <c r="D54">
-        <v>-0.02352108299132246</v>
+        <v>0.007665090202759974</v>
       </c>
       <c r="E54">
-        <v>0.04834928405717719</v>
+        <v>0.02422343364092913</v>
       </c>
       <c r="F54">
-        <v>0.01977656635478045</v>
+        <v>-0.1280502930126853</v>
       </c>
       <c r="G54">
-        <v>0.07655594444684272</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.001160571035296985</v>
+      </c>
+      <c r="H54">
+        <v>-0.04547130097575212</v>
+      </c>
+      <c r="I54">
+        <v>-0.05678376314012255</v>
+      </c>
+      <c r="J54">
+        <v>-0.04588568210514945</v>
+      </c>
+      <c r="K54">
+        <v>-0.1066592357853752</v>
+      </c>
+      <c r="L54">
+        <v>-0.02381797975659226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.09534780557642358</v>
+        <v>-0.09242472216623564</v>
       </c>
       <c r="C55">
-        <v>0.01350993823001621</v>
+        <v>0.03751745695684193</v>
       </c>
       <c r="D55">
-        <v>-0.01518957693360078</v>
+        <v>0.02281137350190539</v>
       </c>
       <c r="E55">
-        <v>-0.001417962875512386</v>
+        <v>-0.01551732248426715</v>
       </c>
       <c r="F55">
-        <v>0.1806984467770765</v>
+        <v>0.01882407594979922</v>
       </c>
       <c r="G55">
-        <v>-0.01570561299214268</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.1013299776696541</v>
+      </c>
+      <c r="H55">
+        <v>-0.06629287751832284</v>
+      </c>
+      <c r="I55">
+        <v>0.1062172368138736</v>
+      </c>
+      <c r="J55">
+        <v>-0.07669147703131189</v>
+      </c>
+      <c r="K55">
+        <v>-0.02920938308746786</v>
+      </c>
+      <c r="L55">
+        <v>-0.02910221987649889</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.1609555052486079</v>
+        <v>-0.1587120656347705</v>
       </c>
       <c r="C56">
-        <v>-0.0006277052301203247</v>
+        <v>0.05496194716527691</v>
       </c>
       <c r="D56">
-        <v>-0.003536196717437096</v>
+        <v>0.04689691551961797</v>
       </c>
       <c r="E56">
-        <v>-0.05835701829824157</v>
+        <v>-0.01415310150036401</v>
       </c>
       <c r="F56">
-        <v>0.2398564548067047</v>
+        <v>0.06355421809581309</v>
       </c>
       <c r="G56">
-        <v>-0.07716996711689464</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1438970118455751</v>
+      </c>
+      <c r="H56">
+        <v>-0.03940401385383622</v>
+      </c>
+      <c r="I56">
+        <v>0.1593689354816581</v>
+      </c>
+      <c r="J56">
+        <v>-0.1376736538785558</v>
+      </c>
+      <c r="K56">
+        <v>-0.009211109464622298</v>
+      </c>
+      <c r="L56">
+        <v>0.01812015731140936</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2866,1697 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.03468461863517098</v>
+        <v>-0.04348653033311173</v>
       </c>
       <c r="C58">
-        <v>0.05094330982025494</v>
+        <v>0.04527850948176475</v>
       </c>
       <c r="D58">
-        <v>0.0312270972373953</v>
+        <v>-0.03808875870554428</v>
       </c>
       <c r="E58">
-        <v>0.2875244061744375</v>
+        <v>0.0987294429470346</v>
       </c>
       <c r="F58">
-        <v>-0.4596423500410391</v>
+        <v>-0.0384740187161227</v>
       </c>
       <c r="G58">
-        <v>0.06190734995104626</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.01186205189935525</v>
+      </c>
+      <c r="H58">
+        <v>0.10909066093731</v>
+      </c>
+      <c r="I58">
+        <v>-0.1745318870297955</v>
+      </c>
+      <c r="J58">
+        <v>0.1906525666288728</v>
+      </c>
+      <c r="K58">
+        <v>-0.1840401182019522</v>
+      </c>
+      <c r="L58">
+        <v>-0.5293346308586226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.1642557543765482</v>
+        <v>-0.1977508118449962</v>
       </c>
       <c r="C59">
-        <v>-0.3876901835051048</v>
+        <v>-0.3001393248364512</v>
       </c>
       <c r="D59">
-        <v>-0.0900260708954277</v>
+        <v>0.02690555353754332</v>
       </c>
       <c r="E59">
-        <v>-0.07324394302004096</v>
+        <v>-0.03968017766011945</v>
       </c>
       <c r="F59">
-        <v>0.04460363238773384</v>
+        <v>-0.0272529445805112</v>
       </c>
       <c r="G59">
-        <v>0.01921880454765583</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02167628549969171</v>
+      </c>
+      <c r="H59">
+        <v>-0.09114223470588084</v>
+      </c>
+      <c r="I59">
+        <v>0.06428507583360295</v>
+      </c>
+      <c r="J59">
+        <v>-0.01349660371382438</v>
+      </c>
+      <c r="K59">
+        <v>0.02841682528836421</v>
+      </c>
+      <c r="L59">
+        <v>0.06443444474363957</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.2660254342850289</v>
+        <v>-0.24551226376952</v>
       </c>
       <c r="C60">
-        <v>0.07145310947047806</v>
+        <v>0.09765371634630897</v>
       </c>
       <c r="D60">
-        <v>-0.08034212680969312</v>
+        <v>0.1015842016983768</v>
       </c>
       <c r="E60">
-        <v>-0.06837324683291993</v>
+        <v>-0.01264590376195386</v>
       </c>
       <c r="F60">
-        <v>-0.08037311498632566</v>
+        <v>0.1309020676910405</v>
       </c>
       <c r="G60">
-        <v>-0.1930132290400658</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.09642071220432714</v>
+      </c>
+      <c r="H60">
+        <v>0.1061931606377971</v>
+      </c>
+      <c r="I60">
+        <v>-0.03597690826077873</v>
+      </c>
+      <c r="J60">
+        <v>-0.09118516350333881</v>
+      </c>
+      <c r="K60">
+        <v>0.2079967952722671</v>
+      </c>
+      <c r="L60">
+        <v>-0.0353051862002058</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.09186658536856258</v>
+        <v>-0.1052689109540411</v>
       </c>
       <c r="C61">
-        <v>0.01864706432215754</v>
+        <v>0.04994552523424022</v>
       </c>
       <c r="D61">
-        <v>-0.00351584446734846</v>
+        <v>0.03709621199831467</v>
       </c>
       <c r="E61">
-        <v>0.02328452858660527</v>
+        <v>-0.06041833531846957</v>
       </c>
       <c r="F61">
-        <v>0.02230457438644643</v>
+        <v>-0.1217808442788878</v>
       </c>
       <c r="G61">
-        <v>0.0647575983716582</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.1224292516397308</v>
+      </c>
+      <c r="H61">
+        <v>-0.01593757020372224</v>
+      </c>
+      <c r="I61">
+        <v>0.03013354510135939</v>
+      </c>
+      <c r="J61">
+        <v>0.1009263087433545</v>
+      </c>
+      <c r="K61">
+        <v>0.02223145263888235</v>
+      </c>
+      <c r="L61">
+        <v>-0.02321483116005573</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0.1442689347839817</v>
+        <v>-0.1522487771258831</v>
       </c>
       <c r="C62">
-        <v>0.02530255127679707</v>
+        <v>0.05369612453104496</v>
       </c>
       <c r="D62">
-        <v>0.03454816762332625</v>
+        <v>0.02301842765714478</v>
       </c>
       <c r="E62">
-        <v>-0.120124261657856</v>
+        <v>-0.02403132380993097</v>
       </c>
       <c r="F62">
-        <v>0.2387410455962249</v>
+        <v>0.07808421683493692</v>
       </c>
       <c r="G62">
-        <v>-0.02630499323675602</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.1179456916767205</v>
+      </c>
+      <c r="H62">
+        <v>-0.02513874094479774</v>
+      </c>
+      <c r="I62">
+        <v>0.1673735119540388</v>
+      </c>
+      <c r="J62">
+        <v>-0.16524809706791</v>
+      </c>
+      <c r="K62">
+        <v>-0.05499478660456085</v>
+      </c>
+      <c r="L62">
+        <v>0.02239913955048536</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.04045683478004902</v>
+        <v>-0.04004535655717392</v>
       </c>
       <c r="C63">
-        <v>0.01251833539634378</v>
+        <v>0.01749672373624864</v>
       </c>
       <c r="D63">
-        <v>0.00578382087910932</v>
+        <v>-0.01976148360701605</v>
       </c>
       <c r="E63">
-        <v>0.005189426234456697</v>
+        <v>-0.005388913929450971</v>
       </c>
       <c r="F63">
-        <v>0.009220988098439114</v>
+        <v>-0.06069530897880811</v>
       </c>
       <c r="G63">
-        <v>0.03000738378698303</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.0008074076731472908</v>
+      </c>
+      <c r="H63">
+        <v>0.0037113106180387</v>
+      </c>
+      <c r="I63">
+        <v>-0.01847110050565446</v>
+      </c>
+      <c r="J63">
+        <v>-0.0002146951526782358</v>
+      </c>
+      <c r="K63">
+        <v>0.0009246983733141231</v>
+      </c>
+      <c r="L63">
+        <v>-0.05208845100812</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.1043432359628828</v>
+        <v>-0.09773738645453202</v>
       </c>
       <c r="C64">
-        <v>0.01378719833872378</v>
+        <v>0.0401506990860437</v>
       </c>
       <c r="D64">
-        <v>-0.04301193500039573</v>
+        <v>0.04521503696854317</v>
       </c>
       <c r="E64">
-        <v>0.03818798528823944</v>
+        <v>0.02323555130070896</v>
       </c>
       <c r="F64">
-        <v>-0.02685100548179109</v>
+        <v>-0.0836536955781234</v>
       </c>
       <c r="G64">
-        <v>0.05741494824899172</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.01971814309022884</v>
+      </c>
+      <c r="H64">
+        <v>0.03530874257757452</v>
+      </c>
+      <c r="I64">
+        <v>-0.08268830808437933</v>
+      </c>
+      <c r="J64">
+        <v>0.04030875138835568</v>
+      </c>
+      <c r="K64">
+        <v>0.08274334961226111</v>
+      </c>
+      <c r="L64">
+        <v>0.03284178920265676</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.1215052456589676</v>
+        <v>-0.116113568178987</v>
       </c>
       <c r="C65">
-        <v>0.03184195631385428</v>
+        <v>0.0266903517570258</v>
       </c>
       <c r="D65">
-        <v>-0.0237215678742675</v>
+        <v>-0.02656194847234822</v>
       </c>
       <c r="E65">
-        <v>0.05557013594893519</v>
+        <v>-0.006812850098202453</v>
       </c>
       <c r="F65">
-        <v>-0.2019203752681239</v>
+        <v>0.01100233242948104</v>
       </c>
       <c r="G65">
-        <v>-0.2058275462236868</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.1253864705558925</v>
+      </c>
+      <c r="H65">
+        <v>0.07024020769082333</v>
+      </c>
+      <c r="I65">
+        <v>-0.3686560230620155</v>
+      </c>
+      <c r="J65">
+        <v>-0.4820453439416436</v>
+      </c>
+      <c r="K65">
+        <v>0.1115886305627536</v>
+      </c>
+      <c r="L65">
+        <v>-0.2812590461046625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.1584357694566275</v>
+        <v>-0.1435470886413506</v>
       </c>
       <c r="C66">
-        <v>0.05079164560425114</v>
+        <v>0.1108326683481035</v>
       </c>
       <c r="D66">
-        <v>0.01760492285388979</v>
+        <v>0.02647331628117634</v>
       </c>
       <c r="E66">
-        <v>0.01865648158431491</v>
+        <v>-0.1118912922205703</v>
       </c>
       <c r="F66">
-        <v>0.03109844882586695</v>
+        <v>-0.1273244202415316</v>
       </c>
       <c r="G66">
-        <v>0.3045562126552208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.1405786004999072</v>
+      </c>
+      <c r="H66">
+        <v>0.06439172037393116</v>
+      </c>
+      <c r="I66">
+        <v>0.05817135997051677</v>
+      </c>
+      <c r="J66">
+        <v>0.1841795823700366</v>
+      </c>
+      <c r="K66">
+        <v>0.1599582897403287</v>
+      </c>
+      <c r="L66">
+        <v>0.004392243668866801</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.1004619577472155</v>
+        <v>-0.07569991275110029</v>
       </c>
       <c r="C67">
-        <v>0.04196970882272015</v>
+        <v>0.04531453205473498</v>
       </c>
       <c r="D67">
-        <v>-0.01590066412389224</v>
+        <v>0.01432299018033055</v>
       </c>
       <c r="E67">
-        <v>-0.01298619289927238</v>
+        <v>0.01010377545219828</v>
       </c>
       <c r="F67">
-        <v>0.003048099312334854</v>
+        <v>0.03621429693402049</v>
       </c>
       <c r="G67">
-        <v>0.04749747765599847</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03704956744431775</v>
+      </c>
+      <c r="H67">
+        <v>-0.03389392927724885</v>
+      </c>
+      <c r="I67">
+        <v>-0.009738719936644552</v>
+      </c>
+      <c r="J67">
+        <v>0.03772813369179936</v>
+      </c>
+      <c r="K67">
+        <v>0.07929433079240612</v>
+      </c>
+      <c r="L67">
+        <v>0.1837632238579905</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.04808729036143443</v>
+        <v>-0.1022773880190467</v>
       </c>
       <c r="C68">
-        <v>-0.2919313536273398</v>
+        <v>-0.277053620723946</v>
       </c>
       <c r="D68">
-        <v>-0.03610894698190748</v>
+        <v>-0.01660070935291011</v>
       </c>
       <c r="E68">
-        <v>-0.007916476581477393</v>
+        <v>-0.02094855907428232</v>
       </c>
       <c r="F68">
-        <v>-0.008281828031007061</v>
+        <v>-0.03864681126195928</v>
       </c>
       <c r="G68">
-        <v>-0.02557110821679092</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02155495096312099</v>
+      </c>
+      <c r="H68">
+        <v>-0.0162349993766557</v>
+      </c>
+      <c r="I68">
+        <v>-0.01521143692812212</v>
+      </c>
+      <c r="J68">
+        <v>-0.01834200618642848</v>
+      </c>
+      <c r="K68">
+        <v>0.006606061058706648</v>
+      </c>
+      <c r="L68">
+        <v>-0.04193526839751205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.04609003625938476</v>
+        <v>-0.03916336921020051</v>
       </c>
       <c r="C69">
-        <v>0.01745196209931586</v>
+        <v>0.002044280835734748</v>
       </c>
       <c r="D69">
-        <v>-0.01007356311859415</v>
+        <v>0.009366442140716649</v>
       </c>
       <c r="E69">
-        <v>0.004039921979589624</v>
+        <v>0.009496025629387145</v>
       </c>
       <c r="F69">
-        <v>0.02184857206072666</v>
+        <v>-0.005904936813683677</v>
       </c>
       <c r="G69">
-        <v>0.02773348834078771</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.03600373772813979</v>
+      </c>
+      <c r="H69">
+        <v>-0.0009535799777264057</v>
+      </c>
+      <c r="I69">
+        <v>-0.01615260760931632</v>
+      </c>
+      <c r="J69">
+        <v>-0.02609656931308444</v>
+      </c>
+      <c r="K69">
+        <v>-0.004134536921673125</v>
+      </c>
+      <c r="L69">
+        <v>-0.005537448945403771</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>0.07550727354942466</v>
+        <v>-0.05011353675639257</v>
       </c>
       <c r="C70">
-        <v>0.009108635207432355</v>
+        <v>0.01411353951766562</v>
       </c>
       <c r="D70">
-        <v>-0.0419877428972491</v>
+        <v>0.0365794205660351</v>
       </c>
       <c r="E70">
-        <v>-0.02761722526393486</v>
+        <v>-0.02053951136794298</v>
       </c>
       <c r="F70">
-        <v>-0.08705093537752316</v>
+        <v>-0.02492732103093112</v>
       </c>
       <c r="G70">
-        <v>0.01021176094727837</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>-0.01219693417675098</v>
+      </c>
+      <c r="H70">
+        <v>-0.0117226513560128</v>
+      </c>
+      <c r="I70">
+        <v>-0.1335432755351316</v>
+      </c>
+      <c r="J70">
+        <v>-0.01768432935219923</v>
+      </c>
+      <c r="K70">
+        <v>-0.1436027373880301</v>
+      </c>
+      <c r="L70">
+        <v>0.1539927915963341</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.05630639352895431</v>
+        <v>-0.1178223713685034</v>
       </c>
       <c r="C71">
-        <v>-0.2941209904092351</v>
+        <v>-0.2900343490060795</v>
       </c>
       <c r="D71">
-        <v>-0.05770997364088585</v>
+        <v>0.009611201636924216</v>
       </c>
       <c r="E71">
-        <v>-0.008836348729175892</v>
+        <v>-0.00434833213381468</v>
       </c>
       <c r="F71">
-        <v>-0.01183959483345997</v>
+        <v>-0.04951624629147999</v>
       </c>
       <c r="G71">
-        <v>0.01388254844173178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.04483509866719782</v>
+      </c>
+      <c r="H71">
+        <v>0.01427902947686923</v>
+      </c>
+      <c r="I71">
+        <v>-0.006532503302813232</v>
+      </c>
+      <c r="J71">
+        <v>0.004136704513653531</v>
+      </c>
+      <c r="K71">
+        <v>0.03405690462466021</v>
+      </c>
+      <c r="L71">
+        <v>-0.01602543058464948</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.1526883417841974</v>
+        <v>-0.1474807104933479</v>
       </c>
       <c r="C72">
-        <v>-0.04076176300932263</v>
+        <v>0.01132808391322755</v>
       </c>
       <c r="D72">
-        <v>0.2324041951172214</v>
+        <v>-0.09371165537577654</v>
       </c>
       <c r="E72">
-        <v>-0.03605562468628248</v>
+        <v>-0.03842505556849447</v>
       </c>
       <c r="F72">
-        <v>0.0331977374873799</v>
+        <v>0.006405037285429713</v>
       </c>
       <c r="G72">
-        <v>0.05294938892092241</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03361276287636591</v>
+      </c>
+      <c r="H72">
+        <v>0.05290990504252306</v>
+      </c>
+      <c r="I72">
+        <v>0.01640010590509814</v>
+      </c>
+      <c r="J72">
+        <v>-0.1553244294529817</v>
+      </c>
+      <c r="K72">
+        <v>0.06222329079771128</v>
+      </c>
+      <c r="L72">
+        <v>0.01164429311938156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.2906292987406369</v>
+        <v>-0.2415982766377784</v>
       </c>
       <c r="C73">
-        <v>0.1673465681894345</v>
+        <v>0.1162609793948143</v>
       </c>
       <c r="D73">
-        <v>-0.06241045959494627</v>
+        <v>0.1658491094964706</v>
       </c>
       <c r="E73">
-        <v>-0.1576276270607676</v>
+        <v>-0.07124588648554714</v>
       </c>
       <c r="F73">
-        <v>-0.2797457925803442</v>
+        <v>0.4300200273000872</v>
       </c>
       <c r="G73">
-        <v>-0.278833821857941</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1386359001945771</v>
+      </c>
+      <c r="H73">
+        <v>0.1659986916610935</v>
+      </c>
+      <c r="I73">
+        <v>-0.1221898845901855</v>
+      </c>
+      <c r="J73">
+        <v>0.2759363422109856</v>
+      </c>
+      <c r="K73">
+        <v>0.2548267685335918</v>
+      </c>
+      <c r="L73">
+        <v>-0.03828789093282688</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.09763506916525178</v>
+        <v>-0.1142803622471283</v>
       </c>
       <c r="C74">
-        <v>0.03651383840984657</v>
+        <v>0.06690663487416222</v>
       </c>
       <c r="D74">
-        <v>0.002049967644465965</v>
+        <v>0.006734098485694769</v>
       </c>
       <c r="E74">
-        <v>-0.01077796496053018</v>
+        <v>-0.005234405281122358</v>
       </c>
       <c r="F74">
-        <v>0.09830896442428548</v>
+        <v>0.0684395062052354</v>
       </c>
       <c r="G74">
-        <v>-0.03913458946861999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.1300275358684471</v>
+      </c>
+      <c r="H74">
+        <v>-0.003289393135909549</v>
+      </c>
+      <c r="I74">
+        <v>0.07356512008468793</v>
+      </c>
+      <c r="J74">
+        <v>-0.07260972462409895</v>
+      </c>
+      <c r="K74">
+        <v>-0.02077559052771182</v>
+      </c>
+      <c r="L74">
+        <v>-0.02437208484534635</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.09444888846442827</v>
+        <v>-0.1058578949599627</v>
       </c>
       <c r="C75">
-        <v>0.01565234193213449</v>
+        <v>0.04755595646537239</v>
       </c>
       <c r="D75">
-        <v>0.02004310753611256</v>
+        <v>0.0001815671259601151</v>
       </c>
       <c r="E75">
-        <v>-0.0367156012209696</v>
+        <v>-0.006150228279480343</v>
       </c>
       <c r="F75">
-        <v>0.1198569950909935</v>
+        <v>0.05302261237192887</v>
       </c>
       <c r="G75">
-        <v>-0.07289462788725637</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.06369942389637101</v>
+      </c>
+      <c r="H75">
+        <v>-0.05516824077189991</v>
+      </c>
+      <c r="I75">
+        <v>0.1001283306466131</v>
+      </c>
+      <c r="J75">
+        <v>-0.07505784612251891</v>
+      </c>
+      <c r="K75">
+        <v>-0.03114740201559545</v>
+      </c>
+      <c r="L75">
+        <v>-0.0261555188627488</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.1373091327803727</v>
+        <v>-0.06402712994723819</v>
       </c>
       <c r="C76">
-        <v>0.03278023580325169</v>
+        <v>0.03281505029630249</v>
       </c>
       <c r="D76">
-        <v>-0.008978045741326799</v>
+        <v>0.02405051465910025</v>
       </c>
       <c r="E76">
-        <v>0.007568359330404802</v>
+        <v>0.01096120349015168</v>
       </c>
       <c r="F76">
-        <v>0.226604178915</v>
+        <v>0.08381210652604304</v>
       </c>
       <c r="G76">
-        <v>-0.1179565652036119</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.0542145044012003</v>
+      </c>
+      <c r="H76">
+        <v>-0.08004251949367627</v>
+      </c>
+      <c r="I76">
+        <v>0.09418402348685898</v>
+      </c>
+      <c r="J76">
+        <v>-0.06099442840106952</v>
+      </c>
+      <c r="K76">
+        <v>-0.002579079456735803</v>
+      </c>
+      <c r="L76">
+        <v>-0.01133037259364845</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.08718258521402751</v>
+        <v>-0.07333007624443952</v>
       </c>
       <c r="C77">
-        <v>-0.0001817099393214644</v>
+        <v>0.03155545195987653</v>
       </c>
       <c r="D77">
-        <v>-0.04994831152788346</v>
+        <v>0.04117039074026282</v>
       </c>
       <c r="E77">
-        <v>0.0657527561686321</v>
+        <v>-0.0007656790094804866</v>
       </c>
       <c r="F77">
-        <v>-0.13100942835857</v>
+        <v>-0.2386201101943563</v>
       </c>
       <c r="G77">
-        <v>0.2217961215240538</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03977361982435391</v>
+      </c>
+      <c r="H77">
+        <v>-0.001773343216392412</v>
+      </c>
+      <c r="I77">
+        <v>-0.1823474514917256</v>
+      </c>
+      <c r="J77">
+        <v>-0.05492767550156361</v>
+      </c>
+      <c r="K77">
+        <v>0.2127521059602268</v>
+      </c>
+      <c r="L77">
+        <v>0.5365440654857382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.2069970401496156</v>
+        <v>-0.1575414237240851</v>
       </c>
       <c r="C78">
-        <v>0.06921435233512899</v>
+        <v>0.1029365991015064</v>
       </c>
       <c r="D78">
-        <v>-0.05824799045394571</v>
+        <v>-0.07462306337028635</v>
       </c>
       <c r="E78">
-        <v>0.184928040979059</v>
+        <v>0.184372052332882</v>
       </c>
       <c r="F78">
-        <v>-0.003926507936667007</v>
+        <v>-0.1791081539544714</v>
       </c>
       <c r="G78">
-        <v>0.1305507477787225</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.5347907159565322</v>
+      </c>
+      <c r="H78">
+        <v>-0.6561072555847507</v>
+      </c>
+      <c r="I78">
+        <v>0.2109150686739291</v>
+      </c>
+      <c r="J78">
+        <v>0.03445192891396905</v>
+      </c>
+      <c r="K78">
+        <v>0.1536927631986842</v>
+      </c>
+      <c r="L78">
+        <v>-0.1001048576000704</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.1363963615624115</v>
+        <v>-0.1323443132856609</v>
       </c>
       <c r="C79">
-        <v>0.01348741130785219</v>
+        <v>0.04800511999196577</v>
       </c>
       <c r="D79">
-        <v>0.005132126642842752</v>
+        <v>0.01414298496386926</v>
       </c>
       <c r="E79">
-        <v>-0.02140777088913405</v>
+        <v>0.008419238111687918</v>
       </c>
       <c r="F79">
-        <v>0.1698917512712162</v>
+        <v>0.02290471172131385</v>
       </c>
       <c r="G79">
-        <v>-0.0004700053221411513</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.1068987538768017</v>
+      </c>
+      <c r="H79">
+        <v>-0.008287792467438099</v>
+      </c>
+      <c r="I79">
+        <v>0.1037743553404978</v>
+      </c>
+      <c r="J79">
+        <v>-0.1251935317223008</v>
+      </c>
+      <c r="K79">
+        <v>-0.02089634354985374</v>
+      </c>
+      <c r="L79">
+        <v>-0.01343101571296567</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.03613813470411063</v>
+        <v>-0.06621034879529751</v>
       </c>
       <c r="C80">
-        <v>0.01400991358729267</v>
+        <v>0.04366235673288459</v>
       </c>
       <c r="D80">
-        <v>-0.007246226103815714</v>
+        <v>0.03655319594713073</v>
       </c>
       <c r="E80">
-        <v>-0.04591544894995905</v>
+        <v>-0.06047303299568228</v>
       </c>
       <c r="F80">
-        <v>-0.02877353194500146</v>
+        <v>-0.02245831494833053</v>
       </c>
       <c r="G80">
-        <v>0.05547101739117159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.03267266151337919</v>
+      </c>
+      <c r="H80">
+        <v>-0.09734276192014506</v>
+      </c>
+      <c r="I80">
+        <v>-0.03864955198756875</v>
+      </c>
+      <c r="J80">
+        <v>0.0583680634001581</v>
+      </c>
+      <c r="K80">
+        <v>-0.02460391766760864</v>
+      </c>
+      <c r="L80">
+        <v>-0.117741934413619</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.1101130361048833</v>
+        <v>-0.1311334073859008</v>
       </c>
       <c r="C81">
-        <v>0.01604781159361377</v>
+        <v>0.05749509000127601</v>
       </c>
       <c r="D81">
-        <v>-0.009558793050662491</v>
+        <v>0.02284663689553642</v>
       </c>
       <c r="E81">
-        <v>-0.02069432023498027</v>
+        <v>0.002921696759283966</v>
       </c>
       <c r="F81">
-        <v>0.13976553231648</v>
+        <v>0.01016799609244538</v>
       </c>
       <c r="G81">
-        <v>-0.03820865388088581</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.08252856645494734</v>
+      </c>
+      <c r="H81">
+        <v>-0.006399810415113038</v>
+      </c>
+      <c r="I81">
+        <v>0.110302261333392</v>
+      </c>
+      <c r="J81">
+        <v>-0.07053714021799243</v>
+      </c>
+      <c r="K81">
+        <v>-0.05012815385753659</v>
+      </c>
+      <c r="L81">
+        <v>-0.008824650997747376</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.1119830400700689</v>
+        <v>-0.1415764856877129</v>
       </c>
       <c r="C82">
-        <v>0.03020756887279244</v>
+        <v>0.0530199340401913</v>
       </c>
       <c r="D82">
-        <v>-0.05026553856482838</v>
+        <v>0.05113542347418321</v>
       </c>
       <c r="E82">
-        <v>-0.05283635755392886</v>
+        <v>-0.01369483485779089</v>
       </c>
       <c r="F82">
-        <v>0.245028056613165</v>
+        <v>0.06974430285162501</v>
       </c>
       <c r="G82">
-        <v>0.00475932069245194</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.1874928087339618</v>
+      </c>
+      <c r="H82">
+        <v>-0.05426868871594761</v>
+      </c>
+      <c r="I82">
+        <v>0.204475631594665</v>
+      </c>
+      <c r="J82">
+        <v>-0.05183564460198561</v>
+      </c>
+      <c r="K82">
+        <v>-0.08938660437121855</v>
+      </c>
+      <c r="L82">
+        <v>0.0342472745447672</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>0.1024081807209718</v>
+        <v>-0.09078780203684882</v>
       </c>
       <c r="C83">
-        <v>0.06116620639663649</v>
+        <v>0.1041588412073857</v>
       </c>
       <c r="D83">
-        <v>-0.06371179097085497</v>
+        <v>0.01630130880895702</v>
       </c>
       <c r="E83">
-        <v>-0.01229182725644944</v>
+        <v>0.004900116026268999</v>
       </c>
       <c r="F83">
-        <v>-0.06871792639143887</v>
+        <v>-0.0647578953408494</v>
       </c>
       <c r="G83">
-        <v>0.08202580910888863</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03455007537325736</v>
+      </c>
+      <c r="H83">
+        <v>-0.07437730261780819</v>
+      </c>
+      <c r="I83">
+        <v>-0.1378019765395858</v>
+      </c>
+      <c r="J83">
+        <v>-0.0102101759056456</v>
+      </c>
+      <c r="K83">
+        <v>-0.0244795999962603</v>
+      </c>
+      <c r="L83">
+        <v>0.06037689158488685</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.05480993951885246</v>
+        <v>-0.05421770521445735</v>
       </c>
       <c r="C84">
-        <v>0.02484709998294086</v>
+        <v>-0.0322290590520815</v>
       </c>
       <c r="D84">
-        <v>0.04158098286249046</v>
+        <v>0.009161069123448197</v>
       </c>
       <c r="E84">
-        <v>0.03782988210038364</v>
+        <v>-0.01934244104633739</v>
       </c>
       <c r="F84">
-        <v>0.02981340363475189</v>
+        <v>-0.02000040124074838</v>
       </c>
       <c r="G84">
-        <v>-0.02139022184279483</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.1670657862267052</v>
+      </c>
+      <c r="H84">
+        <v>0.06000265628644119</v>
+      </c>
+      <c r="I84">
+        <v>0.1721827454437242</v>
+      </c>
+      <c r="J84">
+        <v>0.3035890293657288</v>
+      </c>
+      <c r="K84">
+        <v>-0.1226052974719258</v>
+      </c>
+      <c r="L84">
+        <v>-0.1155449172834222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.09982944159785678</v>
+        <v>-0.1172857127097255</v>
       </c>
       <c r="C85">
-        <v>0.0231090371150072</v>
+        <v>0.043085687295648</v>
       </c>
       <c r="D85">
-        <v>-0.02315945986138903</v>
+        <v>0.04639598435730197</v>
       </c>
       <c r="E85">
-        <v>-0.02286409106233852</v>
+        <v>0.003581429847178854</v>
       </c>
       <c r="F85">
-        <v>0.1968410324055167</v>
+        <v>0.02972293330769973</v>
       </c>
       <c r="G85">
-        <v>-0.016849463065968</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1188448919702748</v>
+      </c>
+      <c r="H85">
+        <v>-0.02982571459313614</v>
+      </c>
+      <c r="I85">
+        <v>0.1216674904051244</v>
+      </c>
+      <c r="J85">
+        <v>-0.1153473762882414</v>
+      </c>
+      <c r="K85">
+        <v>-0.0127373365749896</v>
+      </c>
+      <c r="L85">
+        <v>-0.008308758505783741</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.06323326190849515</v>
+        <v>-0.07845017905085423</v>
       </c>
       <c r="C86">
-        <v>0.02910344389492383</v>
+        <v>0.02009940962621973</v>
       </c>
       <c r="D86">
-        <v>-0.04452943111477008</v>
+        <v>0.07932723305486014</v>
       </c>
       <c r="E86">
-        <v>0.04674536395420454</v>
+        <v>0.05369604307932895</v>
       </c>
       <c r="F86">
-        <v>-0.04348928365988403</v>
+        <v>-0.1472845242876555</v>
       </c>
       <c r="G86">
-        <v>0.1379234274665345</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.4508655685494859</v>
+      </c>
+      <c r="H86">
+        <v>0.5225329799995079</v>
+      </c>
+      <c r="I86">
+        <v>0.4041890511020158</v>
+      </c>
+      <c r="J86">
+        <v>-0.1479598722701065</v>
+      </c>
+      <c r="K86">
+        <v>-0.2224185626030112</v>
+      </c>
+      <c r="L86">
+        <v>0.0484125212563255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.1022818044780238</v>
+        <v>-0.1097351802961164</v>
       </c>
       <c r="C87">
-        <v>0.05972630094790383</v>
+        <v>0.0970712756675606</v>
       </c>
       <c r="D87">
-        <v>-0.0158877475409343</v>
+        <v>0.02773609955355399</v>
       </c>
       <c r="E87">
-        <v>0.05063558950715712</v>
+        <v>0.04932015863461003</v>
       </c>
       <c r="F87">
-        <v>-0.02652331357421943</v>
+        <v>-0.1361954211674568</v>
       </c>
       <c r="G87">
-        <v>0.1173709959409611</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.05081175605317254</v>
+      </c>
+      <c r="H87">
+        <v>0.05836916258654199</v>
+      </c>
+      <c r="I87">
+        <v>-0.1498072235815293</v>
+      </c>
+      <c r="J87">
+        <v>-0.04263158902730344</v>
+      </c>
+      <c r="K87">
+        <v>-0.07273425448319025</v>
+      </c>
+      <c r="L87">
+        <v>0.2531613848057997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.06615936430862286</v>
+        <v>-0.05719557193197181</v>
       </c>
       <c r="C88">
-        <v>0.03124097898330958</v>
+        <v>0.04852409713356103</v>
       </c>
       <c r="D88">
-        <v>-0.02594884519258103</v>
+        <v>0.03184599082005569</v>
       </c>
       <c r="E88">
-        <v>0.01379374934884462</v>
+        <v>-0.02109771808962473</v>
       </c>
       <c r="F88">
-        <v>-0.004467444096763984</v>
+        <v>-0.02941129234019208</v>
       </c>
       <c r="G88">
-        <v>0.06130601372002421</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.04074902898197495</v>
+      </c>
+      <c r="H88">
+        <v>0.007211722062784059</v>
+      </c>
+      <c r="I88">
+        <v>-0.02434447432141886</v>
+      </c>
+      <c r="J88">
+        <v>0.03029697698659111</v>
+      </c>
+      <c r="K88">
+        <v>0.02194808071215652</v>
+      </c>
+      <c r="L88">
+        <v>-0.05197318928105489</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.1036238292061989</v>
+        <v>-0.1732188902447054</v>
       </c>
       <c r="C89">
-        <v>-0.3672516776257257</v>
+        <v>-0.3748361329295629</v>
       </c>
       <c r="D89">
-        <v>-0.1138571622192964</v>
+        <v>0.02546312792612558</v>
       </c>
       <c r="E89">
-        <v>0.02110533940463737</v>
+        <v>0.05495239698194147</v>
       </c>
       <c r="F89">
-        <v>-0.07350033915485031</v>
+        <v>-0.02675858305354817</v>
       </c>
       <c r="G89">
-        <v>0.01504197995324583</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.01072875808588674</v>
+      </c>
+      <c r="H89">
+        <v>-0.03487219405143068</v>
+      </c>
+      <c r="I89">
+        <v>-0.0552692973856594</v>
+      </c>
+      <c r="J89">
+        <v>0.07436231919703128</v>
+      </c>
+      <c r="K89">
+        <v>-0.03718536825876648</v>
+      </c>
+      <c r="L89">
+        <v>-0.02917538712874326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.08553569066881711</v>
+        <v>-0.1355504380382684</v>
       </c>
       <c r="C90">
-        <v>-0.291803319973418</v>
+        <v>-0.2762035637221404</v>
       </c>
       <c r="D90">
-        <v>-0.0549119191458301</v>
+        <v>0.01570347653121259</v>
       </c>
       <c r="E90">
-        <v>0.04742483504674656</v>
+        <v>-0.002621262970655164</v>
       </c>
       <c r="F90">
-        <v>-0.04112175616015421</v>
+        <v>-0.05169456599061069</v>
       </c>
       <c r="G90">
-        <v>0.05663992973989777</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01369032796321343</v>
+      </c>
+      <c r="H90">
+        <v>0.05116312063592868</v>
+      </c>
+      <c r="I90">
+        <v>-0.02250508145782288</v>
+      </c>
+      <c r="J90">
+        <v>0.04244454081928874</v>
+      </c>
+      <c r="K90">
+        <v>0.03857027270837973</v>
+      </c>
+      <c r="L90">
+        <v>-0.001530808765940447</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.0845869720433654</v>
+        <v>-0.08227586806480428</v>
       </c>
       <c r="C91">
-        <v>0.02254230042736175</v>
+        <v>0.03867450263467966</v>
       </c>
       <c r="D91">
-        <v>-0.002719442953963643</v>
+        <v>0.02611295257960874</v>
       </c>
       <c r="E91">
-        <v>-0.0221634259024084</v>
+        <v>0.00649993864519956</v>
       </c>
       <c r="F91">
-        <v>0.08143741740719848</v>
+        <v>0.03989949698998373</v>
       </c>
       <c r="G91">
-        <v>-0.07563165350962156</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.06280020065899693</v>
+      </c>
+      <c r="H91">
+        <v>-0.01780285463915698</v>
+      </c>
+      <c r="I91">
+        <v>0.07468199955551864</v>
+      </c>
+      <c r="J91">
+        <v>-0.05661590449473217</v>
+      </c>
+      <c r="K91">
+        <v>-0.02186832135682462</v>
+      </c>
+      <c r="L91">
+        <v>-0.0192417959703698</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.07752620418446335</v>
+        <v>-0.1465927782739005</v>
       </c>
       <c r="C92">
-        <v>-0.339756373835359</v>
+        <v>-0.3283770399032432</v>
       </c>
       <c r="D92">
-        <v>-0.06991529318285122</v>
+        <v>0.004592357599560507</v>
       </c>
       <c r="E92">
-        <v>0.01814825330111658</v>
+        <v>0.03785573469072875</v>
       </c>
       <c r="F92">
-        <v>-0.03827745020577767</v>
+        <v>-0.06166309077283901</v>
       </c>
       <c r="G92">
-        <v>-0.04053866326872619</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.03282756516031812</v>
+      </c>
+      <c r="H92">
+        <v>-0.05077689914478819</v>
+      </c>
+      <c r="I92">
+        <v>0.0054152347328575</v>
+      </c>
+      <c r="J92">
+        <v>0.03048246309838375</v>
+      </c>
+      <c r="K92">
+        <v>0.004069193831123378</v>
+      </c>
+      <c r="L92">
+        <v>-0.02132815123012747</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.09503141833925641</v>
+        <v>-0.1398474674416226</v>
       </c>
       <c r="C93">
-        <v>-0.2941918777976956</v>
+        <v>-0.3109149584353342</v>
       </c>
       <c r="D93">
-        <v>-0.0548177728386475</v>
+        <v>0.03099592498360273</v>
       </c>
       <c r="E93">
-        <v>0.009710023452676068</v>
+        <v>-0.02759642085071515</v>
       </c>
       <c r="F93">
-        <v>-0.0214034359600169</v>
+        <v>-0.02310243693292165</v>
       </c>
       <c r="G93">
-        <v>-0.007766007739197366</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.009579898514165325</v>
+      </c>
+      <c r="H93">
+        <v>0.05156900175166974</v>
+      </c>
+      <c r="I93">
+        <v>-0.007352065187633812</v>
+      </c>
+      <c r="J93">
+        <v>-0.002477102192411354</v>
+      </c>
+      <c r="K93">
+        <v>-0.02139411932310079</v>
+      </c>
+      <c r="L93">
+        <v>-0.001181102182864523</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.0953044489748599</v>
+        <v>-0.1222441092159879</v>
       </c>
       <c r="C94">
-        <v>0.04497525142712524</v>
+        <v>0.05540059632494566</v>
       </c>
       <c r="D94">
-        <v>0.008507803213637106</v>
+        <v>0.01090058348122291</v>
       </c>
       <c r="E94">
-        <v>-0.004980568172180059</v>
+        <v>0.01742941698630828</v>
       </c>
       <c r="F94">
-        <v>0.1405740537980636</v>
+        <v>0.07219404817793232</v>
       </c>
       <c r="G94">
-        <v>-0.06656715818975242</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.08927812590615293</v>
+      </c>
+      <c r="H94">
+        <v>-0.03071494987791426</v>
+      </c>
+      <c r="I94">
+        <v>0.1070590958443376</v>
+      </c>
+      <c r="J94">
+        <v>-0.04530164060432957</v>
+      </c>
+      <c r="K94">
+        <v>-0.0071441784150845</v>
+      </c>
+      <c r="L94">
+        <v>-0.07647541283832589</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.1334235583761674</v>
+        <v>-0.1240097768691267</v>
       </c>
       <c r="C95">
-        <v>0.06959443241171018</v>
+        <v>0.06934715509850167</v>
       </c>
       <c r="D95">
-        <v>-0.05985097489213363</v>
+        <v>0.03940945657078909</v>
       </c>
       <c r="E95">
-        <v>0.01835461298793938</v>
+        <v>0.03318417030965023</v>
       </c>
       <c r="F95">
-        <v>-0.05405085302276163</v>
+        <v>-0.09428833910876798</v>
       </c>
       <c r="G95">
-        <v>0.115247097878737</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.1322004342370095</v>
+      </c>
+      <c r="H95">
+        <v>0.09096337722235821</v>
+      </c>
+      <c r="I95">
+        <v>-0.09098466449810301</v>
+      </c>
+      <c r="J95">
+        <v>0.049943901906674</v>
+      </c>
+      <c r="K95">
+        <v>-0.2066413882261417</v>
+      </c>
+      <c r="L95">
+        <v>-0.04920862250033391</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.006402063210671712</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.003845208234651085</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.001126313492109489</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.00313906313858993</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.00776073047335625</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>-0.02317283239218389</v>
+      </c>
+      <c r="H96">
+        <v>-0.01432712816212112</v>
+      </c>
+      <c r="I96">
+        <v>-0.01162022472889019</v>
+      </c>
+      <c r="J96">
+        <v>-0.01012106552670168</v>
+      </c>
+      <c r="K96">
+        <v>0.02374366175130403</v>
+      </c>
+      <c r="L96">
+        <v>0.01135447730413106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>0.2122527140217142</v>
+        <v>-0.1888924179016848</v>
       </c>
       <c r="C97">
-        <v>-0.142670799606049</v>
+        <v>0.03935400255242479</v>
       </c>
       <c r="D97">
-        <v>0.9001657792776052</v>
+        <v>-0.9087146320024447</v>
       </c>
       <c r="E97">
-        <v>-0.006368192801929311</v>
+        <v>-0.2727905697647563</v>
       </c>
       <c r="F97">
-        <v>-0.08369754038949123</v>
+        <v>0.05520071273093231</v>
       </c>
       <c r="G97">
-        <v>0.03241348033799091</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.05178628226681506</v>
+      </c>
+      <c r="H97">
+        <v>0.09702273125397093</v>
+      </c>
+      <c r="I97">
+        <v>0.02543103371759878</v>
+      </c>
+      <c r="J97">
+        <v>0.03623259757471785</v>
+      </c>
+      <c r="K97">
+        <v>-0.02500993654346827</v>
+      </c>
+      <c r="L97">
+        <v>0.06384601230232584</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.3072335388221833</v>
+        <v>-0.2635627811330736</v>
       </c>
       <c r="C98">
-        <v>0.09004413921940829</v>
+        <v>0.0869711141948971</v>
       </c>
       <c r="D98">
-        <v>-0.07864078857511381</v>
+        <v>0.04823082644400115</v>
       </c>
       <c r="E98">
-        <v>-0.2208776044472687</v>
+        <v>0.0167294867701193</v>
       </c>
       <c r="F98">
-        <v>-0.2031170265850995</v>
+        <v>0.3642343337881053</v>
       </c>
       <c r="G98">
-        <v>-0.2319536721006449</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.115607760885334</v>
+      </c>
+      <c r="H98">
+        <v>-0.2096241589157909</v>
+      </c>
+      <c r="I98">
+        <v>-0.2709690471730186</v>
+      </c>
+      <c r="J98">
+        <v>0.1567370618537513</v>
+      </c>
+      <c r="K98">
+        <v>-0.5131680096983099</v>
+      </c>
+      <c r="L98">
+        <v>0.2249187594482487</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0.08230756325009927</v>
+        <v>-0.06449695185815031</v>
       </c>
       <c r="C99">
-        <v>0.03546724107519402</v>
+        <v>0.02749092851496169</v>
       </c>
       <c r="D99">
-        <v>-0.004738632446293554</v>
+        <v>0.01216722068463109</v>
       </c>
       <c r="E99">
-        <v>-0.01262418371928034</v>
+        <v>0.005462238169584905</v>
       </c>
       <c r="F99">
-        <v>0.01638158841590152</v>
+        <v>0.01793484235458509</v>
       </c>
       <c r="G99">
-        <v>0.009500637174873993</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.001838872029182858</v>
+      </c>
+      <c r="H99">
+        <v>-0.01175030750099697</v>
+      </c>
+      <c r="I99">
+        <v>0.03377331697942894</v>
+      </c>
+      <c r="J99">
+        <v>0.001135488835608353</v>
+      </c>
+      <c r="K99">
+        <v>0.07015375706805138</v>
+      </c>
+      <c r="L99">
+        <v>0.01391911636553968</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.02039416212144813</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.02121692444430585</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.03735166310091134</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.04743400199943632</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.01647265173817793</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.1524243586475535</v>
+      </c>
+      <c r="H100">
+        <v>-0.1202922656975293</v>
+      </c>
+      <c r="I100">
+        <v>-0.07262068576224023</v>
+      </c>
+      <c r="J100">
+        <v>0.1143983739036439</v>
+      </c>
+      <c r="K100">
+        <v>-0.213870302446003</v>
+      </c>
+      <c r="L100">
+        <v>-0.0306191409386849</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.05433973573507745</v>
+        <v>-0.04181759509233574</v>
       </c>
       <c r="C101">
-        <v>0.005535310255171198</v>
+        <v>0.02480285315211351</v>
       </c>
       <c r="D101">
-        <v>-0.01823531560335737</v>
+        <v>0.02299928777819822</v>
       </c>
       <c r="E101">
-        <v>0.03964641655368132</v>
+        <v>0.00624075126110732</v>
       </c>
       <c r="F101">
-        <v>0.02712439371555447</v>
+        <v>-0.0555348779077409</v>
       </c>
       <c r="G101">
-        <v>0.03505433378298915</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.03536022048464958</v>
+      </c>
+      <c r="H101">
+        <v>0.004215772899505619</v>
+      </c>
+      <c r="I101">
+        <v>-0.009505027715353446</v>
+      </c>
+      <c r="J101">
+        <v>-0.0330571648482079</v>
+      </c>
+      <c r="K101">
+        <v>-0.05956581568025505</v>
+      </c>
+      <c r="L101">
+        <v>-0.03599446806564973</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4576,25 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4614,25 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4650,21 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
